--- a/output.xlsx
+++ b/output.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>username</t>
+          <t>username_db1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>email_db1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>user_name</t>
+          <t>username_db2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>email_address</t>
+          <t>email_db2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>001.qq.com</t>
+          <t>0001.qq.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>both_same</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">男        </t>
+          <t xml:space="preserve">女        </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>modify</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>modify</t>
         </is>
       </c>
     </row>
